--- a/documentation-generator/vocab_csv/dga.xlsx
+++ b/documentation-generator/vocab_csv/dga.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="484" uniqueCount="256">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="474" uniqueCount="256">
   <si>
     <t>Term</t>
   </si>
@@ -25,7 +25,7 @@
     <t>Label</t>
   </si>
   <si>
-    <t>Description</t>
+    <t>Definition</t>
   </si>
   <si>
     <t>ParentTerm</t>
@@ -43,7 +43,7 @@
     <t>Relation</t>
   </si>
   <si>
-    <t>Comment</t>
+    <t>Usage</t>
   </si>
   <si>
     <t>Source</t>
@@ -76,7 +76,7 @@
     <t>dpv:DataTransferLegalBasis</t>
   </si>
   <si>
-    <t>sc</t>
+    <t>dpv:LegalBasis</t>
   </si>
   <si>
     <r>
@@ -105,9 +105,6 @@
   </si>
   <si>
     <t>Explicit request or approval of the data subject or data holder to utilise additional specific tools for the purposes of facilitating exchange of data</t>
-  </si>
-  <si>
-    <t>dpv:LegalBasis</t>
   </si>
   <si>
     <r>
@@ -284,6 +281,9 @@
     <t>dpv:Service</t>
   </si>
   <si>
+    <t>sc</t>
+  </si>
+  <si>
     <t>DataIntermediationService</t>
   </si>
   <si>
@@ -392,6 +392,9 @@
     <t>dpv:ConsentManagement</t>
   </si>
   <si>
+    <t>dpv:OrganisationalMeasure</t>
+  </si>
+  <si>
     <t>DGA 25.1</t>
   </si>
   <si>
@@ -456,9 +459,6 @@
   </si>
   <si>
     <t>Searchable asset list which contains available data resources including their data format and size and the conditions for their re-use</t>
-  </si>
-  <si>
-    <t>dpv:OrganisationalMeasure</t>
   </si>
   <si>
     <t>DGA 8.2</t>
@@ -861,7 +861,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy-mm-dd"/>
   </numFmts>
-  <fonts count="17">
+  <fonts count="18">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -940,6 +940,11 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <color rgb="FF000000"/>
+      <name val="&quot;docs-Calibri&quot;"/>
     </font>
     <font>
       <color rgb="FF0000FF"/>
@@ -1022,7 +1027,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="53">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -1146,12 +1151,15 @@
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="17" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="17" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="17" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -1165,6 +1173,9 @@
     </xf>
     <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
@@ -1571,9 +1582,7 @@
       <c r="C3" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="D3" s="10" t="s">
-        <v>25</v>
-      </c>
+      <c r="D3" s="10"/>
       <c r="E3" s="11" t="s">
         <v>19</v>
       </c>
@@ -1582,7 +1591,7 @@
       <c r="H3" s="10"/>
       <c r="I3" s="10"/>
       <c r="J3" s="12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K3" s="13"/>
       <c r="L3" s="13"/>
@@ -1610,13 +1619,13 @@
     </row>
     <row r="4">
       <c r="A4" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="B4" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="C4" s="10" t="s">
         <v>28</v>
-      </c>
-      <c r="C4" s="10" t="s">
-        <v>29</v>
       </c>
       <c r="D4" s="10" t="s">
         <v>18</v>
@@ -1629,7 +1638,7 @@
       <c r="H4" s="10"/>
       <c r="I4" s="10"/>
       <c r="J4" s="11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K4" s="13"/>
       <c r="L4" s="13"/>
@@ -1657,13 +1666,13 @@
     </row>
     <row r="5">
       <c r="A5" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="B5" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="B5" s="9" t="s">
+      <c r="C5" s="10" t="s">
         <v>32</v>
-      </c>
-      <c r="C5" s="10" t="s">
-        <v>33</v>
       </c>
       <c r="D5" s="10" t="s">
         <v>18</v>
@@ -1676,7 +1685,7 @@
       <c r="H5" s="10"/>
       <c r="I5" s="10"/>
       <c r="J5" s="11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K5" s="13"/>
       <c r="L5" s="13"/>
@@ -1704,13 +1713,13 @@
     </row>
     <row r="6">
       <c r="A6" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="B6" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="C6" s="10" t="s">
         <v>36</v>
-      </c>
-      <c r="C6" s="10" t="s">
-        <v>37</v>
       </c>
       <c r="D6" s="10" t="s">
         <v>18</v>
@@ -1723,7 +1732,7 @@
       <c r="H6" s="10"/>
       <c r="I6" s="10"/>
       <c r="J6" s="12" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K6" s="13"/>
       <c r="L6" s="13"/>
@@ -1751,16 +1760,16 @@
     </row>
     <row r="7">
       <c r="A7" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="B7" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="B7" s="15" t="s">
+      <c r="C7" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="C7" s="16" t="s">
+      <c r="D7" s="17" t="s">
         <v>41</v>
-      </c>
-      <c r="D7" s="17" t="s">
-        <v>42</v>
       </c>
       <c r="E7" s="11" t="s">
         <v>19</v>
@@ -1769,10 +1778,10 @@
       <c r="G7" s="10"/>
       <c r="H7" s="10"/>
       <c r="I7" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="J7" s="18" t="s">
         <v>43</v>
-      </c>
-      <c r="J7" s="18" t="s">
-        <v>44</v>
       </c>
       <c r="K7" s="13"/>
       <c r="L7" s="13"/>
@@ -1800,13 +1809,13 @@
     </row>
     <row r="8">
       <c r="A8" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="B8" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="B8" s="10" t="s">
+      <c r="C8" s="16" t="s">
         <v>46</v>
-      </c>
-      <c r="C8" s="16" t="s">
-        <v>47</v>
       </c>
       <c r="D8" s="10" t="s">
         <v>18</v>
@@ -1819,7 +1828,7 @@
       <c r="H8" s="10"/>
       <c r="I8" s="10"/>
       <c r="J8" s="12" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K8" s="13"/>
       <c r="L8" s="13"/>
@@ -1990,27 +1999,25 @@
     </row>
     <row r="2">
       <c r="A2" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="B2" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="C2" s="23" t="s">
         <v>50</v>
       </c>
-      <c r="C2" s="23" t="s">
+      <c r="D2" s="24"/>
+      <c r="E2" s="9" t="s">
         <v>51</v>
-      </c>
-      <c r="D2" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="E2" s="11" t="s">
-        <v>19</v>
       </c>
       <c r="F2" s="10"/>
       <c r="G2" s="10"/>
       <c r="H2" s="10"/>
-      <c r="I2" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="J2" s="24"/>
+      <c r="I2" s="24"/>
+      <c r="J2" s="9" t="s">
+        <v>52</v>
+      </c>
       <c r="K2" s="13"/>
       <c r="L2" s="13"/>
       <c r="M2" s="11" t="s">
@@ -2038,27 +2045,25 @@
     </row>
     <row r="3">
       <c r="A3" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="B3" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="C3" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="C3" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="D3" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="E3" s="11" t="s">
-        <v>19</v>
+      <c r="D3" s="24"/>
+      <c r="E3" s="9" t="s">
+        <v>51</v>
       </c>
       <c r="F3" s="10"/>
       <c r="G3" s="10"/>
       <c r="H3" s="10"/>
-      <c r="I3" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="J3" s="24"/>
+      <c r="I3" s="24"/>
+      <c r="J3" s="9" t="s">
+        <v>56</v>
+      </c>
       <c r="K3" s="13"/>
       <c r="L3" s="13"/>
       <c r="M3" s="11" t="s">
@@ -2086,27 +2091,25 @@
     </row>
     <row r="4">
       <c r="A4" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="B4" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="C4" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="C4" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="D4" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="E4" s="11" t="s">
-        <v>19</v>
+      <c r="D4" s="24"/>
+      <c r="E4" s="9" t="s">
+        <v>51</v>
       </c>
       <c r="F4" s="10"/>
       <c r="G4" s="10"/>
       <c r="H4" s="10"/>
-      <c r="I4" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="J4" s="24"/>
+      <c r="I4" s="24"/>
+      <c r="J4" s="9" t="s">
+        <v>60</v>
+      </c>
       <c r="K4" s="13"/>
       <c r="L4" s="13"/>
       <c r="M4" s="11" t="s">
@@ -5508,25 +5511,25 @@
     </row>
     <row r="2">
       <c r="A2" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="B2" s="15" t="s">
         <v>62</v>
       </c>
-      <c r="B2" s="15" t="s">
+      <c r="C2" s="36" t="s">
         <v>63</v>
       </c>
-      <c r="C2" s="36" t="s">
+      <c r="D2" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="D2" s="15" t="s">
+      <c r="E2" s="11" t="s">
         <v>65</v>
-      </c>
-      <c r="E2" s="11" t="s">
-        <v>19</v>
       </c>
       <c r="F2" s="10"/>
       <c r="G2" s="17"/>
       <c r="H2" s="10"/>
-      <c r="I2" s="15"/>
-      <c r="J2" s="24"/>
+      <c r="I2" s="24"/>
+      <c r="J2" s="15"/>
       <c r="K2" s="13"/>
       <c r="L2" s="10"/>
       <c r="M2" s="11" t="s">
@@ -5562,18 +5565,18 @@
         <v>68</v>
       </c>
       <c r="D3" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="E3" s="11" t="s">
         <v>65</v>
-      </c>
-      <c r="E3" s="11" t="s">
-        <v>19</v>
       </c>
       <c r="F3" s="10"/>
       <c r="G3" s="17"/>
       <c r="H3" s="10"/>
-      <c r="I3" s="37" t="s">
+      <c r="I3" s="24"/>
+      <c r="J3" s="37" t="s">
         <v>69</v>
       </c>
-      <c r="J3" s="24"/>
       <c r="K3" s="13"/>
       <c r="L3" s="10"/>
       <c r="M3" s="11" t="s">
@@ -5612,13 +5615,13 @@
         <v>73</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>19</v>
+        <v>65</v>
       </c>
       <c r="F4" s="10"/>
       <c r="G4" s="17"/>
       <c r="H4" s="10"/>
-      <c r="I4" s="15"/>
-      <c r="J4" s="24"/>
+      <c r="I4" s="24"/>
+      <c r="J4" s="15"/>
       <c r="K4" s="13"/>
       <c r="L4" s="10"/>
       <c r="M4" s="11" t="s">
@@ -5657,15 +5660,15 @@
         <v>73</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>19</v>
+        <v>65</v>
       </c>
       <c r="F5" s="10"/>
       <c r="G5" s="17"/>
       <c r="H5" s="10"/>
-      <c r="I5" s="37" t="s">
+      <c r="I5" s="24"/>
+      <c r="J5" s="37" t="s">
         <v>77</v>
       </c>
-      <c r="J5" s="24"/>
       <c r="K5" s="13"/>
       <c r="L5" s="10"/>
       <c r="M5" s="11" t="s">
@@ -5704,15 +5707,15 @@
         <v>73</v>
       </c>
       <c r="E6" s="11" t="s">
-        <v>19</v>
+        <v>65</v>
       </c>
       <c r="F6" s="10"/>
       <c r="G6" s="17"/>
       <c r="H6" s="10"/>
-      <c r="I6" s="37" t="s">
+      <c r="I6" s="24"/>
+      <c r="J6" s="37" t="s">
         <v>81</v>
       </c>
-      <c r="J6" s="24"/>
       <c r="K6" s="13"/>
       <c r="L6" s="10"/>
       <c r="M6" s="11" t="s">
@@ -5775,9 +5778,9 @@
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="I3"/>
-    <hyperlink r:id="rId2" ref="I5"/>
-    <hyperlink r:id="rId3" ref="I6"/>
+    <hyperlink r:id="rId1" ref="J3"/>
+    <hyperlink r:id="rId2" ref="J5"/>
+    <hyperlink r:id="rId3" ref="J6"/>
   </hyperlinks>
   <drawing r:id="rId4"/>
 </worksheet>
@@ -5858,22 +5861,20 @@
       <c r="C2" s="16" t="s">
         <v>84</v>
       </c>
-      <c r="D2" s="17" t="s">
+      <c r="D2" s="17"/>
+      <c r="E2" s="41" t="s">
         <v>85</v>
-      </c>
-      <c r="E2" s="11" t="s">
-        <v>19</v>
       </c>
       <c r="F2" s="10"/>
       <c r="G2" s="17"/>
       <c r="H2" s="10"/>
-      <c r="I2" s="15" t="s">
+      <c r="I2" s="24"/>
+      <c r="J2" s="15" t="s">
         <v>86</v>
       </c>
-      <c r="J2" s="24"/>
       <c r="K2" s="13"/>
       <c r="L2" s="10"/>
-      <c r="M2" s="41" t="s">
+      <c r="M2" s="42" t="s">
         <v>21</v>
       </c>
       <c r="N2" s="10"/>
@@ -5905,22 +5906,20 @@
       <c r="C3" s="16" t="s">
         <v>89</v>
       </c>
-      <c r="D3" s="17" t="s">
+      <c r="D3" s="17"/>
+      <c r="E3" s="41" t="s">
         <v>85</v>
-      </c>
-      <c r="E3" s="11" t="s">
-        <v>19</v>
       </c>
       <c r="F3" s="10"/>
       <c r="G3" s="17"/>
       <c r="H3" s="10"/>
-      <c r="I3" s="15" t="s">
+      <c r="I3" s="24"/>
+      <c r="J3" s="15" t="s">
         <v>90</v>
       </c>
-      <c r="J3" s="24"/>
       <c r="K3" s="13"/>
       <c r="L3" s="10"/>
-      <c r="M3" s="41" t="s">
+      <c r="M3" s="42" t="s">
         <v>21</v>
       </c>
       <c r="N3" s="10"/>
@@ -5952,22 +5951,20 @@
       <c r="C4" s="16" t="s">
         <v>93</v>
       </c>
-      <c r="D4" s="17" t="s">
+      <c r="D4" s="17"/>
+      <c r="E4" s="41" t="s">
         <v>85</v>
-      </c>
-      <c r="E4" s="11" t="s">
-        <v>19</v>
       </c>
       <c r="F4" s="10"/>
       <c r="G4" s="17"/>
       <c r="H4" s="10"/>
-      <c r="I4" s="15" t="s">
+      <c r="I4" s="24"/>
+      <c r="J4" s="15" t="s">
         <v>86</v>
       </c>
-      <c r="J4" s="24"/>
       <c r="K4" s="13"/>
       <c r="L4" s="10"/>
-      <c r="M4" s="41" t="s">
+      <c r="M4" s="42" t="s">
         <v>21</v>
       </c>
       <c r="N4" s="10"/>
@@ -5999,22 +5996,20 @@
       <c r="C5" s="16" t="s">
         <v>96</v>
       </c>
-      <c r="D5" s="17" t="s">
+      <c r="D5" s="17"/>
+      <c r="E5" s="41" t="s">
         <v>85</v>
-      </c>
-      <c r="E5" s="11" t="s">
-        <v>19</v>
       </c>
       <c r="F5" s="10"/>
       <c r="G5" s="17"/>
       <c r="H5" s="10"/>
-      <c r="I5" s="15" t="s">
+      <c r="I5" s="24"/>
+      <c r="J5" s="15" t="s">
         <v>97</v>
       </c>
-      <c r="J5" s="24"/>
       <c r="K5" s="13"/>
       <c r="L5" s="10"/>
-      <c r="M5" s="41" t="s">
+      <c r="M5" s="42" t="s">
         <v>21</v>
       </c>
       <c r="N5" s="10"/>
@@ -6235,18 +6230,18 @@
         <v>101</v>
       </c>
       <c r="E2" s="11" t="s">
-        <v>19</v>
+        <v>102</v>
       </c>
       <c r="F2" s="10"/>
       <c r="G2" s="10"/>
       <c r="H2" s="10"/>
       <c r="I2" s="9" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="J2" s="24"/>
       <c r="K2" s="13"/>
       <c r="L2" s="10"/>
-      <c r="M2" s="41" t="s">
+      <c r="M2" s="42" t="s">
         <v>21</v>
       </c>
       <c r="N2" s="10"/>
@@ -6270,30 +6265,30 @@
     </row>
     <row r="3">
       <c r="A3" s="15" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C3" s="36" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D3" s="17" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>19</v>
+        <v>102</v>
       </c>
       <c r="F3" s="10"/>
       <c r="G3" s="17"/>
       <c r="H3" s="10"/>
       <c r="I3" s="15" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="J3" s="24"/>
       <c r="K3" s="13"/>
       <c r="L3" s="10"/>
-      <c r="M3" s="41" t="s">
+      <c r="M3" s="42" t="s">
         <v>21</v>
       </c>
       <c r="N3" s="9"/>
@@ -6317,30 +6312,30 @@
     </row>
     <row r="4">
       <c r="A4" s="17" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B4" s="17" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C4" s="16" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D4" s="15" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>19</v>
+        <v>102</v>
       </c>
       <c r="F4" s="10"/>
       <c r="G4" s="10"/>
       <c r="H4" s="10"/>
       <c r="I4" s="9" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="J4" s="24"/>
       <c r="K4" s="13"/>
       <c r="L4" s="10"/>
-      <c r="M4" s="41" t="s">
+      <c r="M4" s="42" t="s">
         <v>21</v>
       </c>
       <c r="N4" s="9"/>
@@ -6364,30 +6359,30 @@
     </row>
     <row r="5">
       <c r="A5" s="17" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B5" s="17" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C5" s="16" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D5" s="15" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>19</v>
+        <v>102</v>
       </c>
       <c r="F5" s="10"/>
       <c r="G5" s="10"/>
       <c r="H5" s="10"/>
       <c r="I5" s="9" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="J5" s="24"/>
       <c r="K5" s="13"/>
       <c r="L5" s="10"/>
-      <c r="M5" s="41" t="s">
+      <c r="M5" s="42" t="s">
         <v>21</v>
       </c>
       <c r="N5" s="9"/>
@@ -6411,30 +6406,30 @@
     </row>
     <row r="6">
       <c r="A6" s="9" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C6" s="23" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E6" s="11" t="s">
-        <v>19</v>
+        <v>102</v>
       </c>
       <c r="F6" s="10"/>
       <c r="G6" s="10"/>
       <c r="H6" s="10"/>
       <c r="I6" s="9" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="J6" s="24"/>
       <c r="K6" s="13"/>
       <c r="L6" s="10"/>
-      <c r="M6" s="41" t="s">
+      <c r="M6" s="42" t="s">
         <v>21</v>
       </c>
       <c r="N6" s="9"/>
@@ -6458,19 +6453,17 @@
     </row>
     <row r="7">
       <c r="A7" s="10" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>123</v>
-      </c>
-      <c r="D7" s="10" t="s">
         <v>124</v>
       </c>
+      <c r="D7" s="10"/>
       <c r="E7" s="11" t="s">
-        <v>19</v>
+        <v>102</v>
       </c>
       <c r="F7" s="10"/>
       <c r="G7" s="10"/>
@@ -6481,7 +6474,7 @@
       <c r="J7" s="24"/>
       <c r="K7" s="13"/>
       <c r="L7" s="10"/>
-      <c r="M7" s="41" t="s">
+      <c r="M7" s="42" t="s">
         <v>21</v>
       </c>
       <c r="N7" s="10"/>
@@ -6504,28 +6497,28 @@
       <c r="AE7" s="10"/>
     </row>
     <row r="8">
-      <c r="A8" s="42" t="s">
+      <c r="A8" s="43" t="s">
         <v>126</v>
       </c>
-      <c r="B8" s="42" t="s">
+      <c r="B8" s="43" t="s">
         <v>127</v>
       </c>
-      <c r="C8" s="43" t="s">
+      <c r="C8" s="44" t="s">
         <v>128</v>
       </c>
-      <c r="D8" s="44" t="s">
+      <c r="D8" s="45" t="s">
         <v>129</v>
       </c>
-      <c r="E8" s="10"/>
+      <c r="E8" s="11"/>
       <c r="F8" s="10"/>
-      <c r="G8" s="44"/>
+      <c r="G8" s="45"/>
       <c r="H8" s="10"/>
-      <c r="I8" s="42" t="s">
+      <c r="I8" s="43" t="s">
         <v>130</v>
       </c>
       <c r="K8" s="13"/>
       <c r="L8" s="10"/>
-      <c r="M8" s="41"/>
+      <c r="M8" s="42"/>
       <c r="N8" s="9"/>
       <c r="O8" s="9"/>
       <c r="P8" s="10"/>
@@ -6556,21 +6549,21 @@
         <v>133</v>
       </c>
       <c r="D9" s="17" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E9" s="11" t="s">
-        <v>19</v>
+        <v>102</v>
       </c>
       <c r="F9" s="10"/>
       <c r="G9" s="17"/>
       <c r="H9" s="10"/>
-      <c r="I9" s="45" t="s">
+      <c r="I9" s="46" t="s">
         <v>134</v>
       </c>
       <c r="J9" s="24"/>
       <c r="K9" s="13"/>
       <c r="L9" s="10"/>
-      <c r="M9" s="41" t="s">
+      <c r="M9" s="42" t="s">
         <v>21</v>
       </c>
       <c r="N9" s="9"/>
@@ -6606,7 +6599,7 @@
         <v>138</v>
       </c>
       <c r="E10" s="11" t="s">
-        <v>19</v>
+        <v>102</v>
       </c>
       <c r="F10" s="10"/>
       <c r="G10" s="10"/>
@@ -6617,7 +6610,7 @@
       <c r="J10" s="24"/>
       <c r="K10" s="13"/>
       <c r="L10" s="10"/>
-      <c r="M10" s="41" t="s">
+      <c r="M10" s="42" t="s">
         <v>21</v>
       </c>
       <c r="N10" s="10"/>
@@ -6649,11 +6642,9 @@
       <c r="C11" s="36" t="s">
         <v>142</v>
       </c>
-      <c r="D11" s="17" t="s">
-        <v>124</v>
-      </c>
+      <c r="D11" s="17"/>
       <c r="E11" s="11" t="s">
-        <v>19</v>
+        <v>102</v>
       </c>
       <c r="F11" s="10"/>
       <c r="G11" s="17"/>
@@ -6664,7 +6655,7 @@
       <c r="J11" s="24"/>
       <c r="K11" s="13"/>
       <c r="L11" s="10"/>
-      <c r="M11" s="41" t="s">
+      <c r="M11" s="42" t="s">
         <v>21</v>
       </c>
       <c r="N11" s="10"/>
@@ -6700,7 +6691,7 @@
         <v>147</v>
       </c>
       <c r="E12" s="11" t="s">
-        <v>19</v>
+        <v>102</v>
       </c>
       <c r="F12" s="10"/>
       <c r="G12" s="10"/>
@@ -6711,7 +6702,7 @@
       <c r="J12" s="24"/>
       <c r="K12" s="13"/>
       <c r="L12" s="10"/>
-      <c r="M12" s="41" t="s">
+      <c r="M12" s="42" t="s">
         <v>21</v>
       </c>
       <c r="N12" s="10"/>
@@ -6743,11 +6734,11 @@
       <c r="C13" s="10" t="s">
         <v>151</v>
       </c>
-      <c r="D13" s="46" t="s">
+      <c r="D13" s="47" t="s">
         <v>152</v>
       </c>
       <c r="E13" s="11" t="s">
-        <v>19</v>
+        <v>129</v>
       </c>
       <c r="F13" s="10"/>
       <c r="G13" s="17"/>
@@ -6758,7 +6749,7 @@
       <c r="J13" s="24"/>
       <c r="K13" s="13"/>
       <c r="L13" s="10"/>
-      <c r="M13" s="41" t="s">
+      <c r="M13" s="42" t="s">
         <v>21</v>
       </c>
       <c r="N13" s="10"/>
@@ -6794,7 +6785,7 @@
         <v>157</v>
       </c>
       <c r="E14" s="11" t="s">
-        <v>19</v>
+        <v>102</v>
       </c>
       <c r="F14" s="10"/>
       <c r="G14" s="10"/>
@@ -6805,7 +6796,7 @@
       <c r="J14" s="24"/>
       <c r="K14" s="13"/>
       <c r="L14" s="10"/>
-      <c r="M14" s="41" t="s">
+      <c r="M14" s="42" t="s">
         <v>21</v>
       </c>
       <c r="N14" s="10"/>
@@ -6841,7 +6832,7 @@
         <v>162</v>
       </c>
       <c r="E15" s="11" t="s">
-        <v>19</v>
+        <v>102</v>
       </c>
       <c r="F15" s="10"/>
       <c r="G15" s="17"/>
@@ -6991,18 +6982,18 @@
         <v>167</v>
       </c>
       <c r="E2" s="11" t="s">
-        <v>19</v>
+        <v>65</v>
       </c>
       <c r="F2" s="10"/>
       <c r="G2" s="10"/>
       <c r="H2" s="10"/>
-      <c r="I2" s="9" t="s">
+      <c r="I2" s="24"/>
+      <c r="J2" s="9" t="s">
         <v>168</v>
       </c>
-      <c r="J2" s="24"/>
       <c r="K2" s="13"/>
       <c r="L2" s="10"/>
-      <c r="M2" s="41" t="s">
+      <c r="M2" s="42" t="s">
         <v>21</v>
       </c>
       <c r="N2" s="10"/>
@@ -7038,18 +7029,18 @@
         <v>172</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>19</v>
+        <v>65</v>
       </c>
       <c r="F3" s="10"/>
       <c r="G3" s="10"/>
       <c r="H3" s="10"/>
-      <c r="I3" s="10" t="s">
+      <c r="I3" s="24"/>
+      <c r="J3" s="10" t="s">
         <v>173</v>
       </c>
-      <c r="J3" s="24"/>
       <c r="K3" s="13"/>
       <c r="L3" s="10"/>
-      <c r="M3" s="41" t="s">
+      <c r="M3" s="42" t="s">
         <v>21</v>
       </c>
       <c r="N3" s="10"/>
@@ -7085,18 +7076,18 @@
         <v>177</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>19</v>
+        <v>65</v>
       </c>
       <c r="F4" s="10"/>
       <c r="G4" s="10"/>
       <c r="H4" s="10"/>
-      <c r="I4" s="10" t="s">
+      <c r="I4" s="24"/>
+      <c r="J4" s="10" t="s">
         <v>178</v>
       </c>
-      <c r="J4" s="24"/>
       <c r="K4" s="13"/>
       <c r="L4" s="10"/>
-      <c r="M4" s="41" t="s">
+      <c r="M4" s="42" t="s">
         <v>21</v>
       </c>
       <c r="N4" s="10"/>
@@ -7132,18 +7123,18 @@
         <v>182</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>19</v>
+        <v>65</v>
       </c>
       <c r="F5" s="10"/>
       <c r="G5" s="10"/>
       <c r="H5" s="10"/>
-      <c r="I5" s="10" t="s">
+      <c r="I5" s="24"/>
+      <c r="J5" s="10" t="s">
         <v>183</v>
       </c>
-      <c r="J5" s="24"/>
       <c r="K5" s="13"/>
       <c r="L5" s="10"/>
-      <c r="M5" s="41" t="s">
+      <c r="M5" s="42" t="s">
         <v>21</v>
       </c>
       <c r="N5" s="10"/>
@@ -7179,18 +7170,18 @@
         <v>187</v>
       </c>
       <c r="E6" s="11" t="s">
-        <v>19</v>
+        <v>65</v>
       </c>
       <c r="F6" s="10"/>
       <c r="G6" s="10"/>
       <c r="H6" s="10"/>
-      <c r="I6" s="10" t="s">
+      <c r="I6" s="24"/>
+      <c r="J6" s="10" t="s">
         <v>188</v>
       </c>
-      <c r="J6" s="24"/>
       <c r="K6" s="13"/>
       <c r="L6" s="10"/>
-      <c r="M6" s="41" t="s">
+      <c r="M6" s="42" t="s">
         <v>21</v>
       </c>
       <c r="N6" s="10"/>
@@ -7226,18 +7217,18 @@
         <v>182</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>19</v>
+        <v>65</v>
       </c>
       <c r="F7" s="10"/>
       <c r="G7" s="10"/>
       <c r="H7" s="10"/>
-      <c r="I7" s="10" t="s">
+      <c r="I7" s="24"/>
+      <c r="J7" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="J7" s="24"/>
       <c r="K7" s="13"/>
       <c r="L7" s="10"/>
-      <c r="M7" s="41" t="s">
+      <c r="M7" s="42" t="s">
         <v>21</v>
       </c>
       <c r="N7" s="10"/>
@@ -7273,18 +7264,18 @@
         <v>177</v>
       </c>
       <c r="E8" s="11" t="s">
-        <v>19</v>
+        <v>65</v>
       </c>
       <c r="F8" s="10"/>
       <c r="G8" s="10"/>
       <c r="H8" s="10"/>
-      <c r="I8" s="10" t="s">
+      <c r="I8" s="24"/>
+      <c r="J8" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="J8" s="24"/>
       <c r="K8" s="13"/>
       <c r="L8" s="10"/>
-      <c r="M8" s="41" t="s">
+      <c r="M8" s="42" t="s">
         <v>21</v>
       </c>
       <c r="N8" s="10"/>
@@ -7320,18 +7311,18 @@
         <v>177</v>
       </c>
       <c r="E9" s="11" t="s">
-        <v>19</v>
+        <v>65</v>
       </c>
       <c r="F9" s="10"/>
       <c r="G9" s="10"/>
       <c r="H9" s="10"/>
-      <c r="I9" s="10" t="s">
+      <c r="I9" s="24"/>
+      <c r="J9" s="10" t="s">
         <v>81</v>
       </c>
-      <c r="J9" s="24"/>
       <c r="K9" s="13"/>
       <c r="L9" s="10"/>
-      <c r="M9" s="41" t="s">
+      <c r="M9" s="42" t="s">
         <v>21</v>
       </c>
       <c r="N9" s="10"/>
@@ -7367,18 +7358,18 @@
         <v>182</v>
       </c>
       <c r="E10" s="11" t="s">
-        <v>19</v>
+        <v>65</v>
       </c>
       <c r="F10" s="10"/>
       <c r="G10" s="10"/>
       <c r="H10" s="10"/>
-      <c r="I10" s="10" t="s">
+      <c r="I10" s="24"/>
+      <c r="J10" s="10" t="s">
         <v>201</v>
       </c>
-      <c r="J10" s="24"/>
       <c r="K10" s="13"/>
       <c r="L10" s="10"/>
-      <c r="M10" s="41" t="s">
+      <c r="M10" s="42" t="s">
         <v>21</v>
       </c>
       <c r="N10" s="10"/>
@@ -7414,18 +7405,18 @@
         <v>205</v>
       </c>
       <c r="E11" s="11" t="s">
-        <v>19</v>
+        <v>65</v>
       </c>
       <c r="F11" s="10"/>
       <c r="G11" s="10"/>
       <c r="H11" s="10"/>
-      <c r="I11" s="10" t="s">
+      <c r="I11" s="24"/>
+      <c r="J11" s="10" t="s">
         <v>206</v>
       </c>
-      <c r="J11" s="24"/>
       <c r="K11" s="13"/>
       <c r="L11" s="10"/>
-      <c r="M11" s="41" t="s">
+      <c r="M11" s="42" t="s">
         <v>21</v>
       </c>
       <c r="N11" s="10"/>
@@ -7461,18 +7452,18 @@
         <v>182</v>
       </c>
       <c r="E12" s="11" t="s">
-        <v>19</v>
+        <v>65</v>
       </c>
       <c r="F12" s="10"/>
       <c r="G12" s="10"/>
       <c r="H12" s="10"/>
-      <c r="I12" s="10" t="s">
+      <c r="I12" s="24"/>
+      <c r="J12" s="10" t="s">
         <v>210</v>
       </c>
-      <c r="J12" s="24"/>
       <c r="K12" s="13"/>
       <c r="L12" s="10"/>
-      <c r="M12" s="41" t="s">
+      <c r="M12" s="42" t="s">
         <v>21</v>
       </c>
       <c r="N12" s="10"/>
@@ -7508,18 +7499,18 @@
         <v>214</v>
       </c>
       <c r="E13" s="11" t="s">
-        <v>19</v>
+        <v>65</v>
       </c>
       <c r="F13" s="10"/>
       <c r="G13" s="10"/>
       <c r="H13" s="10"/>
-      <c r="I13" s="10" t="s">
+      <c r="I13" s="24"/>
+      <c r="J13" s="10" t="s">
         <v>215</v>
       </c>
-      <c r="J13" s="24"/>
       <c r="K13" s="13"/>
       <c r="L13" s="10"/>
-      <c r="M13" s="41" t="s">
+      <c r="M13" s="42" t="s">
         <v>21</v>
       </c>
       <c r="N13" s="10"/>
@@ -7555,16 +7546,16 @@
         <v>214</v>
       </c>
       <c r="E14" s="11" t="s">
-        <v>19</v>
+        <v>65</v>
       </c>
       <c r="F14" s="10"/>
       <c r="G14" s="10"/>
       <c r="H14" s="10"/>
-      <c r="I14" s="10"/>
-      <c r="J14" s="24"/>
+      <c r="I14" s="24"/>
+      <c r="J14" s="10"/>
       <c r="K14" s="13"/>
       <c r="L14" s="10"/>
-      <c r="M14" s="41" t="s">
+      <c r="M14" s="42" t="s">
         <v>21</v>
       </c>
       <c r="N14" s="10"/>
@@ -7600,16 +7591,16 @@
         <v>214</v>
       </c>
       <c r="E15" s="11" t="s">
-        <v>19</v>
+        <v>65</v>
       </c>
       <c r="F15" s="10"/>
       <c r="G15" s="10"/>
       <c r="H15" s="10"/>
-      <c r="I15" s="10"/>
-      <c r="J15" s="24"/>
+      <c r="I15" s="24"/>
+      <c r="J15" s="10"/>
       <c r="K15" s="10"/>
       <c r="L15" s="10"/>
-      <c r="M15" s="41" t="s">
+      <c r="M15" s="42" t="s">
         <v>21</v>
       </c>
       <c r="N15" s="10"/>
@@ -7645,16 +7636,16 @@
         <v>214</v>
       </c>
       <c r="E16" s="11" t="s">
-        <v>19</v>
+        <v>65</v>
       </c>
       <c r="F16" s="10"/>
       <c r="G16" s="10"/>
       <c r="H16" s="10"/>
-      <c r="I16" s="10"/>
-      <c r="J16" s="24"/>
+      <c r="I16" s="24"/>
+      <c r="J16" s="10"/>
       <c r="K16" s="10"/>
       <c r="L16" s="10"/>
-      <c r="M16" s="41" t="s">
+      <c r="M16" s="42" t="s">
         <v>21</v>
       </c>
       <c r="N16" s="10"/>
@@ -7690,16 +7681,16 @@
         <v>214</v>
       </c>
       <c r="E17" s="11" t="s">
-        <v>19</v>
+        <v>65</v>
       </c>
       <c r="F17" s="10"/>
       <c r="G17" s="10"/>
       <c r="H17" s="10"/>
-      <c r="I17" s="10"/>
-      <c r="J17" s="24"/>
+      <c r="I17" s="24"/>
+      <c r="J17" s="10"/>
       <c r="K17" s="10"/>
       <c r="L17" s="10"/>
-      <c r="M17" s="41" t="s">
+      <c r="M17" s="42" t="s">
         <v>21</v>
       </c>
       <c r="N17" s="10"/>
@@ -7735,18 +7726,18 @@
         <v>187</v>
       </c>
       <c r="E18" s="11" t="s">
-        <v>19</v>
+        <v>65</v>
       </c>
       <c r="F18" s="10"/>
       <c r="G18" s="17"/>
       <c r="H18" s="10"/>
-      <c r="I18" s="17" t="s">
+      <c r="I18" s="24"/>
+      <c r="J18" s="17" t="s">
         <v>231</v>
       </c>
-      <c r="J18" s="24"/>
       <c r="K18" s="10"/>
       <c r="L18" s="10"/>
-      <c r="M18" s="41" t="s">
+      <c r="M18" s="42" t="s">
         <v>21</v>
       </c>
       <c r="N18" s="10"/>
@@ -7836,7 +7827,7 @@
       <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="47" t="s">
+      <c r="I1" s="48" t="s">
         <v>8</v>
       </c>
       <c r="J1" s="5" t="s">
@@ -7845,7 +7836,7 @@
       <c r="K1" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="47" t="s">
+      <c r="L1" s="48" t="s">
         <v>11</v>
       </c>
       <c r="M1" s="6" t="s">
@@ -7872,21 +7863,21 @@
       <c r="E2" s="38" t="s">
         <v>238</v>
       </c>
-      <c r="F2" s="48" t="s">
+      <c r="F2" s="49" t="s">
         <v>239</v>
       </c>
       <c r="G2" s="17"/>
       <c r="H2" s="10"/>
-      <c r="I2" s="10" t="s">
+      <c r="I2" s="10"/>
+      <c r="J2" s="50" t="s">
         <v>168</v>
       </c>
-      <c r="J2" s="24"/>
       <c r="K2" s="13"/>
       <c r="L2" s="13"/>
-      <c r="M2" s="41" t="s">
+      <c r="M2" s="42" t="s">
         <v>21</v>
       </c>
-      <c r="N2" s="49" t="s">
+      <c r="N2" s="51" t="s">
         <v>240</v>
       </c>
       <c r="O2" s="10"/>
@@ -7918,7 +7909,7 @@
       <c r="E3" s="38" t="s">
         <v>244</v>
       </c>
-      <c r="F3" s="48" t="s">
+      <c r="F3" s="49" t="s">
         <v>239</v>
       </c>
       <c r="G3" s="10"/>
@@ -7927,10 +7918,10 @@
       <c r="J3" s="10"/>
       <c r="K3" s="13"/>
       <c r="L3" s="13"/>
-      <c r="M3" s="41" t="s">
+      <c r="M3" s="42" t="s">
         <v>21</v>
       </c>
-      <c r="N3" s="49" t="s">
+      <c r="N3" s="51" t="s">
         <v>240</v>
       </c>
       <c r="O3" s="10"/>
@@ -7962,7 +7953,7 @@
       <c r="E4" s="38" t="s">
         <v>248</v>
       </c>
-      <c r="F4" s="48" t="s">
+      <c r="F4" s="49" t="s">
         <v>239</v>
       </c>
       <c r="G4" s="17"/>
@@ -7971,10 +7962,10 @@
       <c r="J4" s="10"/>
       <c r="K4" s="13"/>
       <c r="L4" s="13"/>
-      <c r="M4" s="41" t="s">
+      <c r="M4" s="42" t="s">
         <v>21</v>
       </c>
-      <c r="N4" s="49" t="s">
+      <c r="N4" s="51" t="s">
         <v>240</v>
       </c>
       <c r="O4" s="10"/>
@@ -8006,7 +7997,7 @@
       <c r="E5" s="38" t="s">
         <v>252</v>
       </c>
-      <c r="F5" s="48" t="s">
+      <c r="F5" s="49" t="s">
         <v>239</v>
       </c>
       <c r="G5" s="17"/>
@@ -8015,10 +8006,10 @@
       <c r="J5" s="10"/>
       <c r="K5" s="13"/>
       <c r="L5" s="13"/>
-      <c r="M5" s="41" t="s">
+      <c r="M5" s="42" t="s">
         <v>21</v>
       </c>
-      <c r="N5" s="49" t="s">
+      <c r="N5" s="51" t="s">
         <v>240</v>
       </c>
       <c r="O5" s="9"/>
@@ -8050,7 +8041,7 @@
       <c r="E6" s="38" t="s">
         <v>177</v>
       </c>
-      <c r="F6" s="48" t="s">
+      <c r="F6" s="49" t="s">
         <v>239</v>
       </c>
       <c r="G6" s="10"/>
@@ -8059,10 +8050,10 @@
       <c r="J6" s="10"/>
       <c r="K6" s="13"/>
       <c r="L6" s="10"/>
-      <c r="M6" s="41" t="s">
+      <c r="M6" s="42" t="s">
         <v>21</v>
       </c>
-      <c r="N6" s="49" t="s">
+      <c r="N6" s="51" t="s">
         <v>240</v>
       </c>
       <c r="O6" s="10"/>
@@ -8081,17 +8072,17 @@
       <c r="AB6" s="24"/>
     </row>
     <row r="7">
-      <c r="C7" s="50"/>
+      <c r="C7" s="52"/>
       <c r="K7" s="20"/>
       <c r="L7" s="20"/>
     </row>
     <row r="8">
-      <c r="C8" s="50"/>
+      <c r="C8" s="52"/>
       <c r="K8" s="20"/>
       <c r="L8" s="20"/>
     </row>
     <row r="9">
-      <c r="C9" s="50"/>
+      <c r="C9" s="52"/>
       <c r="K9" s="20"/>
       <c r="L9" s="20"/>
     </row>
@@ -8128,37 +8119,37 @@
       <c r="O11" s="26"/>
     </row>
     <row r="12">
-      <c r="C12" s="50"/>
+      <c r="C12" s="52"/>
       <c r="K12" s="20"/>
       <c r="L12" s="20"/>
     </row>
     <row r="13">
-      <c r="C13" s="50"/>
+      <c r="C13" s="52"/>
     </row>
     <row r="14">
-      <c r="C14" s="50"/>
+      <c r="C14" s="52"/>
     </row>
     <row r="15">
-      <c r="C15" s="50"/>
+      <c r="C15" s="52"/>
     </row>
     <row r="16">
-      <c r="C16" s="50"/>
+      <c r="C16" s="52"/>
     </row>
     <row r="17">
       <c r="C17" s="32"/>
     </row>
     <row r="18">
-      <c r="C18" s="50"/>
+      <c r="C18" s="52"/>
     </row>
     <row r="19">
-      <c r="C19" s="50"/>
+      <c r="C19" s="52"/>
     </row>
     <row r="20">
       <c r="A20" s="32"/>
-      <c r="C20" s="50"/>
+      <c r="C20" s="52"/>
     </row>
     <row r="21">
-      <c r="C21" s="50"/>
+      <c r="C21" s="52"/>
     </row>
     <row r="22">
       <c r="C22" s="32"/>
@@ -8167,7 +8158,7 @@
       <c r="C23" s="32"/>
     </row>
     <row r="24">
-      <c r="C24" s="50"/>
+      <c r="C24" s="52"/>
     </row>
     <row r="25">
       <c r="C25" s="30"/>
